--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Inhbc-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Inhbc-Acvr2a.xlsx
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.663472</v>
+        <v>10.50827633333333</v>
       </c>
       <c r="N2">
-        <v>40.990416</v>
+        <v>31.524829</v>
       </c>
       <c r="O2">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018133</v>
       </c>
       <c r="P2">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018134</v>
       </c>
       <c r="Q2">
-        <v>1.071138778458667</v>
+        <v>0.823789317634111</v>
       </c>
       <c r="R2">
-        <v>9.640249006127998</v>
+        <v>7.414103858707001</v>
       </c>
       <c r="S2">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018133</v>
       </c>
       <c r="T2">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018134</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,10 +626,10 @@
         <v>92.83779699999999</v>
       </c>
       <c r="O3">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849104</v>
       </c>
       <c r="P3">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849105</v>
       </c>
       <c r="Q3">
         <v>2.425985734650111</v>
@@ -638,10 +638,10 @@
         <v>21.833871611851</v>
       </c>
       <c r="S3">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849104</v>
       </c>
       <c r="T3">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849105</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.057967000000001</v>
+        <v>6.495209666666667</v>
       </c>
       <c r="N4">
-        <v>15.173901</v>
+        <v>19.485629</v>
       </c>
       <c r="O4">
-        <v>0.08007141251452472</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="P4">
-        <v>0.08007141251452471</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="Q4">
-        <v>0.396515950987</v>
+        <v>0.5091876316785555</v>
       </c>
       <c r="R4">
-        <v>3.568643558883</v>
+        <v>4.582688685107</v>
       </c>
       <c r="S4">
-        <v>0.08007141251452472</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="T4">
-        <v>0.08007141251452471</v>
+        <v>0.1040059814559238</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.373288333333332</v>
+        <v>9.909791666666667</v>
       </c>
       <c r="N5">
-        <v>22.119865</v>
+        <v>29.729375</v>
       </c>
       <c r="O5">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="P5">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="Q5">
-        <v>0.578024023366111</v>
+        <v>0.7768715111805555</v>
       </c>
       <c r="R5">
-        <v>5.202216210294999</v>
+        <v>6.991843600625001</v>
       </c>
       <c r="S5">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="T5">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.127540333333333</v>
+        <v>4.591137333333333</v>
       </c>
       <c r="N6">
-        <v>18.382621</v>
+        <v>13.773412</v>
       </c>
       <c r="O6">
-        <v>0.09700356086343023</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="P6">
-        <v>0.09700356086343022</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="Q6">
-        <v>0.4803644394047777</v>
+        <v>0.3599191504884444</v>
       </c>
       <c r="R6">
-        <v>4.323279954643001</v>
+        <v>3.239272354396</v>
       </c>
       <c r="S6">
-        <v>0.09700356086343023</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="T6">
-        <v>0.09700356086343022</v>
+        <v>0.07351660205871713</v>
       </c>
     </row>
   </sheetData>
